--- a/public/template/project.xlsx
+++ b/public/template/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\产品\配电网工程云设计平台\1.管理端\all in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4B9B4-4C8D-4F7B-87AE-C9AF44230CBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F108C18-2D6B-4B06-8799-0B883E05F4FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1950" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3075" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,15 +267,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>请输入0-99999之间的整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>勘察</t>
-  </si>
-  <si>
-    <t>请输入总投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -284,7 +276,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -349,20 +341,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -647,7 +656,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,40 +664,40 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
+    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -702,22 +711,22 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>44324</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>44325</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>44324</v>
       </c>
       <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>2024</v>
       </c>
       <c r="J2" t="s">
@@ -725,36 +734,36 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -785,111 +794,110 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="4"/>
+    <col min="25" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="3"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AA1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -909,16 +917,16 @@
       <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>66</v>
+      <c r="F2" s="13">
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44324</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>44325</v>
       </c>
       <c r="J2" t="s">
@@ -966,108 +974,115 @@
       <c r="X2" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>500</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>44325</v>
+      </c>
+      <c r="AB2" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>44325</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AC2:AF6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{913DA6AC-7802-4F4F-9B2C-306000E23E12}">
+  <dataValidations disablePrompts="1" count="20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{5841E86D-2CC1-4389-B335-C140C5E9205F}">
       <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{4220DE5E-517F-4C0D-9240-0ECFC677EF9F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F70C83E8-9217-4616-9ED7-1E73C22EA130}">
       <formula1>"优化网架结构,改善供电质量,提高装备标准,提升智能水平,深化新技术应用,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5AF3BE4E-4828-4EE9-961D-5E35CEA770E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{218E18E1-EB5A-42C9-BA7D-5430746CAD49}">
       <formula1>"10kV线路,配变台区,低压线路"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{34A0682A-9ED1-41DF-BC52-5BACC985AF62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{96D93ECB-A3F0-4039-A16F-84E61BF8E150}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{B7D15595-85A9-4791-88A0-53A44D9F94EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{C35D92D2-83D7-48C3-8D39-DE295B2DCF6F}">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{48A2CA37-8B9C-4440-AEE2-52B09F07A682}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{DB34F998-3057-4C48-BA04-B61BD022099B}">
       <formula1>"子公司,用户,总公司,分部,省（直辖市、自治区）公司"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{C623E193-C9C3-4987-ABD0-DBD02C79C414}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{BA6EE392-4F42-43F7-B6AA-0DCB2826D578}">
       <formula1>"配电线路,配电电缆,配电通道,配电站室,配电自动化,配网通信,配电附属设施"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{020B129B-6E83-4DBF-A7B5-F901A20AEBF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{4BE47DD0-D0AD-4B79-930D-95B1006A8B1E}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{54C5A428-63F5-44DC-9A32-2A9DA0A2231A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{86B7103F-BC85-478D-8D3D-286933655B95}">
       <formula1>"网架结构不合理,供电能力不足,设备老化,落实安措（安全防护）及反措要求,设备故障,设备质量缺陷,电能质量问题,运行环境恶化,电网发展需求需提高主要技术参数水平,新技术应用,配合市政建设,落实国家政策,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{0712ED94-D881-4F69-A9D1-08F7FF38B76A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{45C67633-9FE3-4D34-89C2-FBC68F5BE596}">
       <formula1>"提升电网安全稳定水平,提升设备运行可靠性,提升电网输送能力,提升电网经济运行水平,提升电网智能化水平,提升电网环保水平,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{1670D8AB-202A-4430-AF71-E6D09421AE53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{45DBB344-0069-4B52-8970-66FF9BC49AC4}">
       <formula1>"A+,A,B,C,D,E"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{9E4CBBA3-2902-445F-83D4-1783E62B3BDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{E97E0DD6-38B6-491B-B18E-241CFFC61DDC}">
       <formula1>"新建,改造,扩建,配套输出"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{9FF30887-43B9-43E0-847E-5A22575285FE}">
-      <formula1>"农网升级改造工程,城镇配网工程,无电地区电力建设"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{E5A3470A-6D57-476A-B89D-E411099BF2B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{EE519397-4580-4278-B516-BC35162D72F7}">
       <formula1>"可研,初设,施工图,竣工图"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{3DEA7311-9AB0-453E-918D-2D1BAFAB8E4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{65350BBF-B348-4481-8534-A3D7996075AD}">
       <formula1>"第一批,第二批,第三批,第四批,第五批,第六批"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{F643D3FD-B835-4A1C-9C0D-01A3F04411D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{3B928222-978A-4840-8006-1CC1D6241EC4}">
       <formula1>"贫困地区农网建设与改造项目,新接收小水电供区电网改造项目,运行异常配变改造项目,小康电示范县电网建设与改造项目,新增机井通电工程,农网配电自动化改造项目,易地扶贫搬迁项目,常规农网项目,其他项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{A8E7E38D-3AEC-4FB2-9DA6-AA55E1325FFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{BA4E5CFD-3CEB-4D55-B157-76FEAA24A97E}">
       <formula1>"无,A类,B类,C类,D类,E类,F类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576" xr:uid="{44E31BF6-A894-4B8E-AD27-27E57E62887A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576" xr:uid="{1332039F-EB41-422B-A570-80D9AECF8341}">
       <formula1>"勘察,导入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{B6140003-F70C-4C42-957A-368847B4049F}">
+      <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入1-99999以内的整数" sqref="Y2:Y1048576 Z1:Z1048576" xr:uid="{FF2EA017-87D7-4579-B43B-776ECC2812CD}">
+      <formula1>1</formula1>
+      <formula2>99999</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{A23E10A4-0CCA-4764-8CFE-C56EE0179AE1}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/project.xlsx
+++ b/public/template/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\产品\配电网工程云设计平台\1.管理端\all in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F108C18-2D6B-4B06-8799-0B883E05F4FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381EDED5-4BC8-445C-86E2-FAB1B8636F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3075" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工程 " sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迎峰度夏项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交流20kV</t>
   </si>
   <si>
@@ -219,21 +215,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省（直辖市、自治区）公司</t>
-  </si>
-  <si>
     <t>配电线路</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>供电能力不足</t>
-  </si>
-  <si>
-    <t>提升电网输送能力</t>
-  </si>
-  <si>
     <t>请输入资产所属单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,9 +236,6 @@
     <t>新建</t>
   </si>
   <si>
-    <t>农网升级改造工程</t>
-  </si>
-  <si>
     <t>可研</t>
   </si>
   <si>
@@ -268,6 +249,29 @@
   </si>
   <si>
     <t>勘察</t>
+  </si>
+  <si>
+    <t>农网改造升级工程</t>
+  </si>
+  <si>
+    <t>井井通电</t>
+  </si>
+  <si>
+    <t>子公司</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>设备老化</t>
+  </si>
+  <si>
+    <t>提升设备运行可靠性</t>
+  </si>
+  <si>
+    <t>PS：标红的表头表示必填选项；
+“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +280,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -341,36 +345,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,114 +687,115 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>44324</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>44325</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>44324</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="11">
         <v>2024</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -794,235 +826,240 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="3"/>
+    <col min="25" max="26" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="2"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="18">
+        <v>100</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="19">
+        <v>44324</v>
+      </c>
+      <c r="I2" s="19">
+        <v>44325</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="13">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="3">
-        <v>44324</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="L2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>500</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>500</v>
+      </c>
+      <c r="AA2" s="19">
         <v>44325</v>
       </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AB2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>500</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>500</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>44325</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
+      <c r="AC2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AC2:AF6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="20">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{5841E86D-2CC1-4389-B335-C140C5E9205F}">
       <formula1>"无,交流20kV,交流10kV,交流380V"</formula1>
     </dataValidation>
@@ -1032,9 +1069,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{218E18E1-EB5A-42C9-BA7D-5430746CAD49}">
       <formula1>"10kV线路,配变台区,低压线路"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{96D93ECB-A3F0-4039-A16F-84E61BF8E150}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{C35D92D2-83D7-48C3-8D39-DE295B2DCF6F}">
       <formula1>"贫困村,深度贫困村,小康用电,煤改电,三区凉州,井井通电,小城镇（中心村）,村村通动力电,迎峰度冬项目,迎峰度夏项目,灾后恢复项目,易地扶贫搬迁,其他"</formula1>
     </dataValidation>
@@ -1077,12 +1111,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{B6140003-F70C-4C42-957A-368847B4049F}">
       <formula1>"农网改造升级工程,城镇配网工程,无电地区电力建设"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入1-99999以内的整数" sqref="Y2:Y1048576 Z1:Z1048576" xr:uid="{FF2EA017-87D7-4579-B43B-776ECC2812CD}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{A23E10A4-0CCA-4764-8CFE-C56EE0179AE1}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="内容说明" prompt="“所属工程的序号”一栏需要填写该项目所属的工程的序号（工程sheet第1列），以便建立项目与工程的所属关系。" sqref="A1:A1048576" xr:uid="{A0B7BD2D-98A2-4ADD-8398-DF6566765052}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入1-99999以内的整数" prompt="单位：米" sqref="Y2:Z1048576" xr:uid="{2A44F5C0-DC05-48B1-AC3B-00442F049CD2}">
       <formula1>1</formula1>
       <formula2>99999</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{A23E10A4-0CCA-4764-8CFE-C56EE0179AE1}">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
